--- a/Design/DateTable/client_building_info.xlsx
+++ b/Design/DateTable/client_building_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0859D8F-451D-436E-AAF9-615A9340DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957E420-92B7-4AE8-B876-4C4446B7AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,6 +885,12 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -898,6 +904,12 @@
       </c>
       <c r="D4" t="s">
         <v>90</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +995,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1207,75 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1212,6 +1293,75 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1229,6 +1379,75 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1246,6 +1465,75 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1263,6 +1551,75 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1280,6 +1637,75 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1297,6 +1723,75 @@
       <c r="E9">
         <v>2</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1314,6 +1809,75 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1331,6 +1895,75 @@
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1347,6 +1980,75 @@
       </c>
       <c r="E12">
         <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +2295,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/DateTable/client_building_info.xlsx
+++ b/Design/DateTable/client_building_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957E420-92B7-4AE8-B876-4C4446B7AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C82574-FAE0-455F-B49E-2E1B88984B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -504,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -650,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,7 +824,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1A35F7-141F-4FA4-84C7-CC4288132611}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C78B2AC-44F4-49A5-808F-230C9D703B72}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
